--- a/data/output snippet/statistics.xlsx
+++ b/data/output snippet/statistics.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14320" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="工作表2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="38">
   <si>
     <t>httpd-2.4.10</t>
   </si>
@@ -65,60 +66,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>我可以解释为什么标红的两个软件比值较高</t>
-    <rPh sb="0" eb="1">
-      <t>wo ke yi jie s</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>jie shi</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>wei shen m</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>biao hong</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>de</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>liang ge</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ruan jian</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>bi zhi</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>jiao gqao</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有固定的模式为大多数函数调用加日志</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>他们的日志组织比较好</t>
-    <rPh sb="0" eb="1">
-      <t>ta men</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>de</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ri zhi</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>zu z</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>bi jiao hao</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Total line</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -151,22 +98,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>we can provide each call site</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>we can provide public link</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Project</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Average</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>gimp-2.8.0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -180,6 +115,62 @@
   </si>
   <si>
     <t>total output callsites</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total keyword callsites</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>behavior based(logging)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>behavior based(keyword)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Projects</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LogAdvisor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SmartLog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Errlog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>% of LogAdvisor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>% of Errlog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Logged snippet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>% of total</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>% of syntax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>syntax equivalent snippet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>semantic equivalent snippet</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -190,7 +181,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="#,##0_ "/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -222,6 +213,24 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -240,15 +249,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -259,9 +275,20 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="9">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -536,887 +563,1578 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N28"/>
+  <dimension ref="A1:P49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23" style="11" customWidth="1"/>
-    <col min="9" max="9" width="15.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" style="10" customWidth="1"/>
+    <col min="9" max="9" width="15.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5" style="2" customWidth="1"/>
+    <col min="11" max="11" width="16.6640625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="8.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.5" style="4" customWidth="1"/>
+    <col min="14" max="14" width="7.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.5" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>17</v>
+      <c r="F1" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" s="5" t="s">
+      <c r="H1" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="M1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="O1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="5">
         <v>151747</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="5">
         <v>261</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="5">
         <v>113125</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="6">
         <f>D2/B2</f>
         <v>0.74548425998537038</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="5">
         <v>178</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="6">
         <f>F2/C2</f>
         <v>0.68199233716475094</v>
       </c>
-      <c r="H2" s="12">
+      <c r="H2" s="11">
         <v>4628</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="4">
         <v>2568</v>
       </c>
       <c r="J2" s="2">
-        <f t="shared" ref="J2:J7" si="0">I2/H2</f>
+        <f t="shared" ref="J2:J8" si="0">I2/H2</f>
         <v>0.5548833189282627</v>
       </c>
-      <c r="K2" s="5">
+      <c r="M2" s="4">
         <v>871</v>
       </c>
-      <c r="L2" s="2">
-        <f t="shared" ref="L2:L7" si="1">K2/H2</f>
+      <c r="N2" s="2">
+        <f t="shared" ref="N2:N8" si="1">M2/H2</f>
         <v>0.18820224719101122</v>
       </c>
-      <c r="M2" s="5">
+      <c r="O2" s="4">
         <v>264</v>
       </c>
-      <c r="N2" s="2">
-        <f t="shared" ref="N2:N7" si="2">M2/H2</f>
+      <c r="P2" s="9">
+        <f t="shared" ref="P2:P8" si="2">O2/H2</f>
         <v>5.7044079515989631E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="8">
         <v>777367</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="8">
         <v>530</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="8">
         <v>253225</v>
       </c>
-      <c r="E3" s="10">
-        <f t="shared" ref="E3:E7" si="3">D3/B3</f>
+      <c r="E3" s="9">
+        <f t="shared" ref="E3:E8" si="3">D3/B3</f>
         <v>0.32574704097292528</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="8">
         <v>382</v>
       </c>
-      <c r="G3" s="10">
-        <f t="shared" ref="G3:G7" si="4">F3/C3</f>
+      <c r="G3" s="9">
+        <f t="shared" ref="G3:G8" si="4">F3/C3</f>
         <v>0.72075471698113203</v>
       </c>
-      <c r="H3" s="13">
+      <c r="H3" s="12">
         <v>10218</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="8">
         <v>5975</v>
       </c>
-      <c r="J3" s="10">
+      <c r="J3" s="9">
         <f t="shared" si="0"/>
         <v>0.58475239772949694</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="8">
         <v>3176</v>
       </c>
-      <c r="L3" s="10">
+      <c r="N3" s="9">
         <f t="shared" si="1"/>
         <v>0.31082403601487568</v>
       </c>
-      <c r="M3" s="9">
+      <c r="O3" s="8">
         <v>921</v>
       </c>
-      <c r="N3" s="4">
+      <c r="P3" s="9">
         <f t="shared" si="2"/>
         <v>9.0135055783910747E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>1399693</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>1712</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>897888</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="6">
         <f t="shared" si="3"/>
         <v>0.64148924085495895</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="5">
         <v>800</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="6">
         <f t="shared" si="4"/>
         <v>0.46728971962616822</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="11">
         <v>22316</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="4">
         <v>13703</v>
       </c>
       <c r="J4" s="2">
         <f t="shared" si="0"/>
         <v>0.61404373543645818</v>
       </c>
-      <c r="K4" s="5">
+      <c r="M4" s="4">
         <v>5667</v>
       </c>
-      <c r="L4" s="2">
+      <c r="N4" s="2">
         <f t="shared" si="1"/>
         <v>0.25394335902491488</v>
       </c>
-      <c r="M4" s="5">
+      <c r="O4" s="4">
         <v>552</v>
       </c>
-      <c r="N4" s="2">
+      <c r="P4" s="9">
         <f t="shared" si="2"/>
         <v>2.4735615701738663E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="6">
+        <v>21</v>
+      </c>
+      <c r="B5" s="5">
         <v>703213</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>1105</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>578069</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="6">
         <f t="shared" si="3"/>
         <v>0.8220396949430685</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="5">
         <v>719</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="6">
         <f t="shared" si="4"/>
         <v>0.65067873303167423</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="11">
         <v>32992</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="4">
         <v>24403</v>
       </c>
       <c r="J5" s="2">
         <f t="shared" si="0"/>
         <v>0.73966416100872934</v>
       </c>
-      <c r="K5" s="5">
+      <c r="M5" s="4">
         <v>5715</v>
       </c>
-      <c r="L5" s="2">
+      <c r="N5" s="2">
         <f t="shared" si="1"/>
         <v>0.17322381183317168</v>
       </c>
-      <c r="M5" s="5">
+      <c r="O5" s="4">
         <v>1766</v>
       </c>
-      <c r="N5" s="2">
+      <c r="P5" s="9">
         <f t="shared" si="2"/>
         <v>5.3528128031037826E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="9">
+    <row r="6" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="8">
         <v>657017</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="8">
         <v>1600</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="8">
         <v>609011</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="9">
         <f t="shared" si="3"/>
         <v>0.92693339746155734</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="8">
         <v>1509</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="9">
         <f t="shared" si="4"/>
         <v>0.94312499999999999</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="12">
         <v>17794</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="8">
         <v>14367</v>
       </c>
-      <c r="J6" s="10">
+      <c r="J6" s="9">
         <f t="shared" si="0"/>
         <v>0.80740699112060244</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="8">
         <v>1814</v>
       </c>
-      <c r="L6" s="10">
+      <c r="N6" s="9">
         <f t="shared" si="1"/>
         <v>0.10194447566595481</v>
       </c>
-      <c r="M6" s="9">
+      <c r="O6" s="8">
         <v>1344</v>
       </c>
-      <c r="N6" s="4">
+      <c r="P6" s="9">
         <f t="shared" si="2"/>
         <v>7.5531077891424075E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>2671701</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>2152</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <v>2435272</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="6">
         <f t="shared" si="3"/>
         <v>0.91150619025107971</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="5">
         <v>1729</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="6">
         <f t="shared" si="4"/>
         <v>0.80343866171003719</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="11">
         <v>16679</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="4">
         <v>9627</v>
       </c>
       <c r="J7" s="2">
         <f t="shared" si="0"/>
         <v>0.57719287727081958</v>
       </c>
-      <c r="K7" s="5">
+      <c r="M7" s="4">
         <v>2557</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <f t="shared" si="1"/>
         <v>0.15330655315066852</v>
       </c>
-      <c r="M7" s="5">
+      <c r="O7" s="4">
         <v>819</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="9">
         <f t="shared" si="2"/>
         <v>4.9103663289166016E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <f>SUM(B2:B7)</f>
         <v>6360738</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <f>SUM(C2:C7)</f>
         <v>7360</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <f>SUM(D2:D7)</f>
         <v>4886590</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="6">
+      <c r="E8" s="6">
+        <f t="shared" si="3"/>
+        <v>0.76824261587256071</v>
+      </c>
+      <c r="F8" s="5">
         <f>SUM(F2:F7)</f>
         <v>5317</v>
       </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="12">
+      <c r="G8" s="6">
+        <f t="shared" si="4"/>
+        <v>0.72241847826086958</v>
+      </c>
+      <c r="H8" s="11">
         <f>SUM(H2:H7)</f>
         <v>104627</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="5">
         <f>SUM(I2:I7)</f>
         <v>70643</v>
       </c>
-      <c r="K8" s="6">
-        <f>SUM(K2:K7)</f>
+      <c r="J8" s="2">
+        <f t="shared" si="0"/>
+        <v>0.67518900475020793</v>
+      </c>
+      <c r="M8" s="5">
+        <f>SUM(M2:M7)</f>
         <v>19800</v>
       </c>
-      <c r="M8" s="6">
-        <f>SUM(M2:M7)</f>
+      <c r="N8" s="2">
+        <f t="shared" si="1"/>
+        <v>0.18924369426629836</v>
+      </c>
+      <c r="O8" s="5">
+        <f>SUM(O2:O7)</f>
         <v>5666</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
+      <c r="P8" s="9">
+        <f t="shared" si="2"/>
+        <v>5.4154281399638717E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="B9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O9"/>
+      <c r="P9" s="9"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="B10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O10" s="2"/>
+      <c r="P10" s="9"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="B11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="O11" s="2"/>
+      <c r="P11" s="9"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="B12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="P12" s="9"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="D13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="P13" s="9"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P14" s="9"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P15" s="9"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P16" s="9"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M17" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="7">
-        <f>AVERAGE(E2:E7)</f>
-        <v>0.72886663741149338</v>
-      </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7">
-        <f>AVERAGE(G2:G7)</f>
-        <v>0.71121319475229372</v>
-      </c>
-      <c r="H9" s="14"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7">
-        <f>AVERAGE(J2:J7)</f>
-        <v>0.64632391358239483</v>
-      </c>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7">
-        <f>AVERAGE(L2:L7)</f>
-        <v>0.19690741381343282</v>
-      </c>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7">
-        <f>AVERAGE(N2:N7)</f>
-        <v>5.834627003554449E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="M10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B12" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B13" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="D14" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K20" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="L20" s="2" t="s">
+      <c r="N17" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="M20" s="5" t="s">
+      <c r="O17" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="N20" s="2" t="s">
+      <c r="P17" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A21" s="1" t="s">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B18" s="5">
         <v>151747</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C18" s="5">
         <v>261</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D18" s="5">
         <v>113125</v>
       </c>
-      <c r="E21" s="7">
-        <f>D21/B21</f>
+      <c r="E18" s="6">
+        <f>D18/B18</f>
         <v>0.74548425998537038</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F18" s="5">
         <v>178</v>
       </c>
-      <c r="G21" s="7">
-        <f>F21/C21</f>
+      <c r="G18" s="6">
+        <f>F18/C18</f>
         <v>0.68199233716475094</v>
       </c>
-      <c r="H21" s="12">
-        <v>4566</v>
-      </c>
-      <c r="I21" s="5">
-        <v>4297</v>
-      </c>
-      <c r="J21" s="2">
-        <f t="shared" ref="J21:J26" si="5">I21/H21</f>
-        <v>0.94108628996933863</v>
-      </c>
-      <c r="K21" s="5">
-        <v>871</v>
-      </c>
-      <c r="L21" s="2">
-        <f t="shared" ref="L21:L26" si="6">K21/H21</f>
-        <v>0.19075777485764345</v>
-      </c>
-      <c r="M21" s="5">
-        <v>264</v>
-      </c>
-      <c r="N21" s="2">
-        <f t="shared" ref="N21:N26" si="7">M21/H21</f>
-        <v>5.7818659658344283E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A22" s="8" t="s">
+      <c r="H18" s="11">
+        <v>5195</v>
+      </c>
+      <c r="I18" s="4">
+        <v>3748</v>
+      </c>
+      <c r="J18" s="2">
+        <f t="shared" ref="J18:J24" si="5">I18/H18</f>
+        <v>0.72146294513955722</v>
+      </c>
+      <c r="K18" s="4">
+        <v>1811</v>
+      </c>
+      <c r="L18" s="2">
+        <f>K18/H18</f>
+        <v>0.34860442733397495</v>
+      </c>
+      <c r="M18" s="4">
+        <v>1233</v>
+      </c>
+      <c r="N18" s="2">
+        <f t="shared" ref="N18:N24" si="6">M18/H18</f>
+        <v>0.23734359961501444</v>
+      </c>
+      <c r="O18" s="4">
+        <v>388</v>
+      </c>
+      <c r="P18" s="9">
+        <f t="shared" ref="P18:P24" si="7">O18/H18</f>
+        <v>7.4687199230028881E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A19" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B19" s="8">
         <v>777367</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C19" s="8">
         <v>530</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D19" s="8">
         <v>253225</v>
       </c>
-      <c r="E22" s="10">
-        <f t="shared" ref="E22:E26" si="8">D22/B22</f>
+      <c r="E19" s="9">
+        <f t="shared" ref="E19:E24" si="8">D19/B19</f>
         <v>0.32574704097292528</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F19" s="8">
         <v>382</v>
       </c>
-      <c r="G22" s="10">
-        <f t="shared" ref="G22:G26" si="9">F22/C22</f>
+      <c r="G19" s="9">
+        <f t="shared" ref="G19:G24" si="9">F19/C19</f>
         <v>0.72075471698113203</v>
       </c>
-      <c r="H22" s="13">
-        <v>10218</v>
-      </c>
-      <c r="I22" s="9">
-        <v>8133</v>
-      </c>
-      <c r="J22" s="10">
+      <c r="H19" s="12">
+        <v>10749</v>
+      </c>
+      <c r="I19" s="8">
+        <v>6986</v>
+      </c>
+      <c r="J19" s="9">
         <f t="shared" si="5"/>
-        <v>0.79594832648267766</v>
-      </c>
-      <c r="K22" s="9">
-        <v>3176</v>
-      </c>
-      <c r="L22" s="10">
+        <v>0.64992092287654668</v>
+      </c>
+      <c r="K19" s="8">
+        <v>4392</v>
+      </c>
+      <c r="L19" s="2">
+        <f t="shared" ref="L19:L24" si="10">K19/H19</f>
+        <v>0.40859614847892828</v>
+      </c>
+      <c r="M19" s="8">
+        <v>4068</v>
+      </c>
+      <c r="N19" s="9">
         <f t="shared" si="6"/>
-        <v>0.31082403601487568</v>
-      </c>
-      <c r="M22" s="9">
-        <v>921</v>
-      </c>
-      <c r="N22" s="4">
+        <v>0.37845380965671227</v>
+      </c>
+      <c r="O19" s="8">
+        <v>962</v>
+      </c>
+      <c r="P19" s="9">
         <f t="shared" si="7"/>
-        <v>9.0135055783910747E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A23" s="1" t="s">
+        <v>8.9496697367196953E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B20" s="5">
         <v>1399693</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C20" s="5">
         <v>1712</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D20" s="5">
         <v>897888</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E20" s="6">
         <f t="shared" si="8"/>
         <v>0.64148924085495895</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F20" s="5">
         <v>800</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G20" s="6">
         <f t="shared" si="9"/>
         <v>0.46728971962616822</v>
       </c>
-      <c r="H23" s="12">
-        <v>22358</v>
-      </c>
-      <c r="I23" s="5">
-        <v>13703</v>
+      <c r="H20" s="11">
+        <v>24565</v>
+      </c>
+      <c r="I20" s="4">
+        <v>15874</v>
+      </c>
+      <c r="J20" s="2">
+        <f t="shared" si="5"/>
+        <v>0.64620394870751063</v>
+      </c>
+      <c r="K20" s="4">
+        <v>8178</v>
+      </c>
+      <c r="L20" s="2">
+        <f t="shared" si="10"/>
+        <v>0.33291268064319152</v>
+      </c>
+      <c r="M20" s="4">
+        <v>7213</v>
+      </c>
+      <c r="N20" s="2">
+        <f t="shared" si="6"/>
+        <v>0.29362914716059435</v>
+      </c>
+      <c r="O20" s="4">
+        <v>572</v>
+      </c>
+      <c r="P20" s="9">
+        <f t="shared" si="7"/>
+        <v>2.3285161815591288E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="5">
+        <v>703213</v>
+      </c>
+      <c r="C21" s="5">
+        <v>1105</v>
+      </c>
+      <c r="D21" s="5">
+        <v>578069</v>
+      </c>
+      <c r="E21" s="6">
+        <f t="shared" si="8"/>
+        <v>0.8220396949430685</v>
+      </c>
+      <c r="F21" s="5">
+        <v>719</v>
+      </c>
+      <c r="G21" s="6">
+        <f t="shared" si="9"/>
+        <v>0.65067873303167423</v>
+      </c>
+      <c r="H21" s="11">
+        <v>35081</v>
+      </c>
+      <c r="I21" s="4">
+        <v>27598</v>
+      </c>
+      <c r="J21" s="2">
+        <f t="shared" si="5"/>
+        <v>0.78669365183432627</v>
+      </c>
+      <c r="K21" s="4">
+        <v>6905</v>
+      </c>
+      <c r="L21" s="2">
+        <f t="shared" si="10"/>
+        <v>0.19683019298195603</v>
+      </c>
+      <c r="M21" s="4">
+        <v>6152</v>
+      </c>
+      <c r="N21" s="2">
+        <f t="shared" si="6"/>
+        <v>0.17536558250905049</v>
+      </c>
+      <c r="O21" s="4">
+        <v>1784</v>
+      </c>
+      <c r="P21" s="9">
+        <f t="shared" si="7"/>
+        <v>5.0853738490921015E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A22" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="8">
+        <v>657017</v>
+      </c>
+      <c r="C22" s="8">
+        <v>1600</v>
+      </c>
+      <c r="D22" s="8">
+        <v>609011</v>
+      </c>
+      <c r="E22" s="9">
+        <f t="shared" si="8"/>
+        <v>0.92693339746155734</v>
+      </c>
+      <c r="F22" s="8">
+        <v>1509</v>
+      </c>
+      <c r="G22" s="9">
+        <f t="shared" si="9"/>
+        <v>0.94312499999999999</v>
+      </c>
+      <c r="H22" s="12">
+        <v>18854</v>
+      </c>
+      <c r="I22" s="8">
+        <v>15620</v>
+      </c>
+      <c r="J22" s="9">
+        <f t="shared" si="5"/>
+        <v>0.8284714119019837</v>
+      </c>
+      <c r="K22" s="8">
+        <v>2809</v>
+      </c>
+      <c r="L22" s="2">
+        <f t="shared" si="10"/>
+        <v>0.14898695237084969</v>
+      </c>
+      <c r="M22" s="8">
+        <v>2305</v>
+      </c>
+      <c r="N22" s="9">
+        <f t="shared" si="6"/>
+        <v>0.12225522435557441</v>
+      </c>
+      <c r="O22" s="8">
+        <v>1263</v>
+      </c>
+      <c r="P22" s="9">
+        <f t="shared" si="7"/>
+        <v>6.6988437466850542E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="5">
+        <v>2671701</v>
+      </c>
+      <c r="C23" s="5">
+        <v>2152</v>
+      </c>
+      <c r="D23" s="5">
+        <v>2435272</v>
+      </c>
+      <c r="E23" s="6">
+        <f t="shared" si="8"/>
+        <v>0.91150619025107971</v>
+      </c>
+      <c r="F23" s="5">
+        <v>1729</v>
+      </c>
+      <c r="G23" s="6">
+        <f t="shared" si="9"/>
+        <v>0.80343866171003719</v>
+      </c>
+      <c r="H23" s="11">
+        <v>18445</v>
+      </c>
+      <c r="I23" s="4">
+        <v>12712</v>
       </c>
       <c r="J23" s="2">
         <f t="shared" si="5"/>
-        <v>0.61289024062975217</v>
-      </c>
-      <c r="K23" s="5">
-        <v>5667</v>
+        <v>0.68918406072106264</v>
+      </c>
+      <c r="K23" s="4">
+        <v>4913</v>
       </c>
       <c r="L23" s="2">
+        <f t="shared" si="10"/>
+        <v>0.26635944700460829</v>
+      </c>
+      <c r="M23" s="4">
+        <v>3329</v>
+      </c>
+      <c r="N23" s="2">
         <f t="shared" si="6"/>
-        <v>0.253466320780034</v>
-      </c>
-      <c r="M23" s="5">
-        <v>552</v>
-      </c>
-      <c r="N23" s="2">
+        <v>0.18048251558687992</v>
+      </c>
+      <c r="O23" s="4">
+        <v>1160</v>
+      </c>
+      <c r="P23" s="2">
         <f t="shared" si="7"/>
-        <v>2.4689149297790501E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
+        <v>6.2889671997831395E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" s="6">
-        <v>703213</v>
-      </c>
-      <c r="C24" s="6">
-        <v>1105</v>
-      </c>
-      <c r="D24" s="6">
-        <v>578069</v>
-      </c>
-      <c r="E24" s="7">
+        <v>4</v>
+      </c>
+      <c r="B24" s="5">
+        <f>SUM(B18:B23)</f>
+        <v>6360738</v>
+      </c>
+      <c r="C24" s="5">
+        <f>SUM(C18:C23)</f>
+        <v>7360</v>
+      </c>
+      <c r="D24" s="5">
+        <f>SUM(D18:D23)</f>
+        <v>4886590</v>
+      </c>
+      <c r="E24" s="6">
         <f t="shared" si="8"/>
-        <v>0.8220396949430685</v>
-      </c>
-      <c r="F24" s="6">
-        <v>719</v>
-      </c>
-      <c r="G24" s="7">
+        <v>0.76824261587256071</v>
+      </c>
+      <c r="F24" s="5">
+        <f>SUM(F18:F23)</f>
+        <v>5317</v>
+      </c>
+      <c r="G24" s="6">
         <f t="shared" si="9"/>
-        <v>0.65067873303167423</v>
-      </c>
-      <c r="H24" s="12">
-        <v>32988</v>
+        <v>0.72241847826086958</v>
+      </c>
+      <c r="H24" s="11">
+        <f>SUM(H18:H23)</f>
+        <v>112889</v>
       </c>
       <c r="I24" s="5">
-        <v>24403</v>
+        <f>SUM(I18:I23)</f>
+        <v>82538</v>
       </c>
       <c r="J24" s="2">
         <f t="shared" si="5"/>
-        <v>0.73975384988480664</v>
+        <v>0.73114298115848309</v>
       </c>
       <c r="K24" s="5">
-        <v>5715</v>
+        <f>SUM(K18:K23)</f>
+        <v>29008</v>
       </c>
       <c r="L24" s="2">
+        <f t="shared" si="10"/>
+        <v>0.25696037700750296</v>
+      </c>
+      <c r="M24" s="5">
+        <f>SUM(M18:M23)</f>
+        <v>24300</v>
+      </c>
+      <c r="N24" s="2">
         <f t="shared" si="6"/>
-        <v>0.17324481629683522</v>
-      </c>
-      <c r="M24" s="5">
-        <v>1766</v>
-      </c>
-      <c r="N24" s="2">
+        <v>0.21525569364597083</v>
+      </c>
+      <c r="O24" s="5">
+        <f>SUM(O18:O23)</f>
+        <v>6129</v>
+      </c>
+      <c r="P24" s="2">
         <f t="shared" si="7"/>
-        <v>5.3534618649205772E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A25" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="9">
-        <v>657017</v>
-      </c>
-      <c r="C25" s="9">
-        <v>1600</v>
-      </c>
-      <c r="D25" s="9">
-        <v>609011</v>
-      </c>
-      <c r="E25" s="10">
-        <f t="shared" si="8"/>
-        <v>0.92693339746155734</v>
-      </c>
-      <c r="F25" s="9">
-        <v>1509</v>
-      </c>
-      <c r="G25" s="10">
-        <f t="shared" si="9"/>
-        <v>0.94312499999999999</v>
-      </c>
-      <c r="H25" s="13">
-        <v>17781</v>
-      </c>
-      <c r="I25" s="9">
-        <v>14367</v>
-      </c>
-      <c r="J25" s="10">
-        <f t="shared" si="5"/>
-        <v>0.80799730048928631</v>
-      </c>
-      <c r="K25" s="9">
-        <v>1814</v>
-      </c>
-      <c r="L25" s="10">
-        <f t="shared" si="6"/>
-        <v>0.10201900905460885</v>
-      </c>
-      <c r="M25" s="9">
-        <v>1344</v>
-      </c>
-      <c r="N25" s="4">
-        <f t="shared" si="7"/>
-        <v>7.5586299983128061E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A26" s="1" t="s">
+        <v>5.4292269397372639E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A25" s="1"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="11">
+        <v>5195</v>
+      </c>
+      <c r="I26" s="5">
+        <f t="shared" ref="I26:I31" si="11">I18</f>
+        <v>3748</v>
+      </c>
+      <c r="J26" s="6">
+        <f>I26/H26</f>
+        <v>0.72146294513955722</v>
+      </c>
+      <c r="K26" s="5"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="5">
+        <f t="shared" ref="M26:M31" si="12">M18</f>
+        <v>1233</v>
+      </c>
+      <c r="N26" s="6">
+        <f>M26/I26</f>
+        <v>0.32897545357524011</v>
+      </c>
+      <c r="O26" s="5">
+        <f t="shared" ref="O26:O31" si="13">O18</f>
+        <v>388</v>
+      </c>
+      <c r="P26" s="2">
+        <f>O26/M26</f>
+        <v>0.31467964314679642</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="12">
+        <v>10749</v>
+      </c>
+      <c r="I27" s="5">
+        <f t="shared" si="11"/>
+        <v>6986</v>
+      </c>
+      <c r="J27" s="6">
+        <f t="shared" ref="J27:J32" si="14">I27/H27</f>
+        <v>0.64992092287654668</v>
+      </c>
+      <c r="K27" s="5"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="5">
+        <f t="shared" si="12"/>
+        <v>4068</v>
+      </c>
+      <c r="N27" s="6">
+        <f t="shared" ref="N27:N32" si="15">M27/I27</f>
+        <v>0.58230747208703115</v>
+      </c>
+      <c r="O27" s="5">
+        <f t="shared" si="13"/>
+        <v>962</v>
+      </c>
+      <c r="P27" s="2">
+        <f t="shared" ref="P27:P32" si="16">O27/M27</f>
+        <v>0.23647984267453295</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="H28" s="11">
+        <v>24565</v>
+      </c>
+      <c r="I28" s="5">
+        <f t="shared" si="11"/>
+        <v>15874</v>
+      </c>
+      <c r="J28" s="6">
+        <f t="shared" si="14"/>
+        <v>0.64620394870751063</v>
+      </c>
+      <c r="K28" s="5"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="5">
+        <f t="shared" si="12"/>
+        <v>7213</v>
+      </c>
+      <c r="N28" s="6">
+        <f t="shared" si="15"/>
+        <v>0.45439082776867834</v>
+      </c>
+      <c r="O28" s="5">
+        <f t="shared" si="13"/>
+        <v>572</v>
+      </c>
+      <c r="P28" s="2">
+        <f t="shared" si="16"/>
+        <v>7.9301261610980181E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="H29" s="11">
+        <v>35081</v>
+      </c>
+      <c r="I29" s="5">
+        <f t="shared" si="11"/>
+        <v>27598</v>
+      </c>
+      <c r="J29" s="6">
+        <f t="shared" si="14"/>
+        <v>0.78669365183432627</v>
+      </c>
+      <c r="K29" s="5"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="5">
+        <f t="shared" si="12"/>
+        <v>6152</v>
+      </c>
+      <c r="N29" s="6">
+        <f t="shared" si="15"/>
+        <v>0.22291470396405536</v>
+      </c>
+      <c r="O29" s="5">
+        <f t="shared" si="13"/>
+        <v>1784</v>
+      </c>
+      <c r="P29" s="2">
+        <f t="shared" si="16"/>
+        <v>0.28998699609882966</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="H30" s="12">
+        <v>18854</v>
+      </c>
+      <c r="I30" s="5">
+        <f t="shared" si="11"/>
+        <v>15620</v>
+      </c>
+      <c r="J30" s="6">
+        <f t="shared" si="14"/>
+        <v>0.8284714119019837</v>
+      </c>
+      <c r="K30" s="5"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="5">
+        <f t="shared" si="12"/>
+        <v>2305</v>
+      </c>
+      <c r="N30" s="6">
+        <f t="shared" si="15"/>
+        <v>0.14756722151088347</v>
+      </c>
+      <c r="O30" s="5">
+        <f t="shared" si="13"/>
+        <v>1263</v>
+      </c>
+      <c r="P30" s="2">
+        <f t="shared" si="16"/>
+        <v>0.54793926247288505</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="H31" s="11">
+        <v>18445</v>
+      </c>
+      <c r="I31" s="5">
+        <f t="shared" si="11"/>
+        <v>12712</v>
+      </c>
+      <c r="J31" s="6">
+        <f t="shared" si="14"/>
+        <v>0.68918406072106264</v>
+      </c>
+      <c r="K31" s="5"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="5">
+        <f t="shared" si="12"/>
+        <v>3329</v>
+      </c>
+      <c r="N31" s="6">
+        <f t="shared" si="15"/>
+        <v>0.26187853996224042</v>
+      </c>
+      <c r="O31" s="5">
+        <f t="shared" si="13"/>
+        <v>1160</v>
+      </c>
+      <c r="P31" s="2">
+        <f t="shared" si="16"/>
+        <v>0.34845298888555121</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="H32" s="11">
+        <f>SUM(H26:H31)</f>
+        <v>112889</v>
+      </c>
+      <c r="I32" s="5">
+        <f>SUM(I26:I31)</f>
+        <v>82538</v>
+      </c>
+      <c r="J32" s="6">
+        <f t="shared" si="14"/>
+        <v>0.73114298115848309</v>
+      </c>
+      <c r="M32" s="5">
+        <f>SUM(M26:M31)</f>
+        <v>24300</v>
+      </c>
+      <c r="N32" s="6">
+        <f t="shared" si="15"/>
+        <v>0.2944098475853546</v>
+      </c>
+      <c r="O32" s="5">
+        <f>SUM(O26:O31)</f>
+        <v>6129</v>
+      </c>
+      <c r="P32" s="2">
+        <f t="shared" si="16"/>
+        <v>0.25222222222222224</v>
+      </c>
+    </row>
+    <row r="44" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D44" s="2"/>
+    </row>
+    <row r="45" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D45" s="2"/>
+    </row>
+    <row r="46" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D46" s="2"/>
+    </row>
+    <row r="47" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D47" s="2"/>
+    </row>
+    <row r="48" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D48" s="2"/>
+    </row>
+    <row r="49" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D49" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4">
+        <v>3748</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1233</v>
+      </c>
+      <c r="D2" s="6">
+        <f>C2/B2</f>
+        <v>0.32897545357524011</v>
+      </c>
+      <c r="E2" s="4">
+        <v>388</v>
+      </c>
+      <c r="F2" s="6">
+        <f>E2/C2</f>
+        <v>0.31467964314679642</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8">
+        <v>6986</v>
+      </c>
+      <c r="C3" s="8">
+        <v>4068</v>
+      </c>
+      <c r="D3" s="6">
+        <f>C3/B3</f>
+        <v>0.58230747208703115</v>
+      </c>
+      <c r="E3" s="8">
+        <v>962</v>
+      </c>
+      <c r="F3" s="6">
+        <f>E3/C3</f>
+        <v>0.23647984267453295</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4">
+        <v>15874</v>
+      </c>
+      <c r="C4" s="4">
+        <v>7213</v>
+      </c>
+      <c r="D4" s="6">
+        <f>C4/B4</f>
+        <v>0.45439082776867834</v>
+      </c>
+      <c r="E4" s="4">
+        <v>572</v>
+      </c>
+      <c r="F4" s="6">
+        <f>E4/C4</f>
+        <v>7.9301261610980181E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="4">
+        <v>27598</v>
+      </c>
+      <c r="C5" s="4">
+        <v>6152</v>
+      </c>
+      <c r="D5" s="6">
+        <f>C5/B5</f>
+        <v>0.22291470396405536</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1784</v>
+      </c>
+      <c r="F5" s="6">
+        <f>E5/C5</f>
+        <v>0.28998699609882966</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="8">
+        <v>15620</v>
+      </c>
+      <c r="C6" s="8">
+        <v>2305</v>
+      </c>
+      <c r="D6" s="6">
+        <f>C6/B6</f>
+        <v>0.14756722151088347</v>
+      </c>
+      <c r="E6" s="8">
+        <v>1263</v>
+      </c>
+      <c r="F6" s="6">
+        <f>E6/C6</f>
+        <v>0.54793926247288505</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="6">
-        <v>2671701</v>
-      </c>
-      <c r="C26" s="6">
-        <v>2152</v>
-      </c>
-      <c r="D26" s="6">
-        <v>2435272</v>
-      </c>
-      <c r="E26" s="7">
-        <f t="shared" si="8"/>
-        <v>0.91150619025107971</v>
-      </c>
-      <c r="F26" s="6">
-        <v>1729</v>
-      </c>
-      <c r="G26" s="7">
-        <f t="shared" si="9"/>
-        <v>0.80343866171003719</v>
-      </c>
-      <c r="H26" s="12">
-        <v>16586</v>
-      </c>
-      <c r="I26" s="5">
-        <v>9627</v>
-      </c>
-      <c r="J26" s="2">
-        <f t="shared" si="5"/>
-        <v>0.58042927770408781</v>
-      </c>
-      <c r="K26" s="5">
-        <v>2557</v>
-      </c>
-      <c r="L26" s="2">
-        <f t="shared" si="6"/>
-        <v>0.1541661642348969</v>
-      </c>
-      <c r="M26" s="5">
-        <v>819</v>
-      </c>
-      <c r="N26" s="2">
-        <f t="shared" si="7"/>
-        <v>4.9378994332569634E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A27" s="1" t="s">
+      <c r="B7" s="4">
+        <v>12712</v>
+      </c>
+      <c r="C7" s="4">
+        <v>3329</v>
+      </c>
+      <c r="D7" s="6">
+        <f>C7/B7</f>
+        <v>0.26187853996224042</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1160</v>
+      </c>
+      <c r="F7" s="6">
+        <f>E7/C7</f>
+        <v>0.34845298888555121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="6">
-        <f>SUM(B21:B26)</f>
-        <v>6360738</v>
-      </c>
-      <c r="C27" s="6">
-        <f>SUM(C21:C26)</f>
-        <v>7360</v>
-      </c>
-      <c r="D27" s="6">
-        <f>SUM(D21:D26)</f>
-        <v>4886590</v>
-      </c>
-      <c r="E27" s="7"/>
-      <c r="F27" s="6">
-        <f>SUM(F21:F26)</f>
-        <v>5317</v>
-      </c>
-      <c r="G27" s="7"/>
-      <c r="H27" s="12">
-        <f>SUM(H21:H26)</f>
-        <v>104497</v>
-      </c>
-      <c r="I27" s="6">
-        <f>SUM(I21:I26)</f>
-        <v>74530</v>
-      </c>
-      <c r="K27" s="6">
-        <f>SUM(K21:K26)</f>
-        <v>19800</v>
-      </c>
-      <c r="M27" s="6">
-        <f>SUM(M21:M26)</f>
-        <v>5666</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A28" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="7">
-        <f>AVERAGE(E21:E26)</f>
-        <v>0.72886663741149338</v>
-      </c>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7">
-        <f>AVERAGE(G21:G26)</f>
-        <v>0.71121319475229372</v>
-      </c>
-      <c r="H28" s="14"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7">
-        <f>AVERAGE(J21:J26)</f>
-        <v>0.74635088085999157</v>
-      </c>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7">
-        <f>AVERAGE(L21:L26)</f>
-        <v>0.19741302020648235</v>
-      </c>
-      <c r="M28" s="7"/>
-      <c r="N28" s="7">
-        <f>AVERAGE(N21:N26)</f>
-        <v>5.8523796284158165E-2</v>
+      <c r="B8" s="5">
+        <f>SUM(B2:B7)</f>
+        <v>82538</v>
+      </c>
+      <c r="C8" s="5">
+        <f>SUM(C2:C7)</f>
+        <v>24300</v>
+      </c>
+      <c r="D8" s="6">
+        <f>C8/B8</f>
+        <v>0.2944098475853546</v>
+      </c>
+      <c r="E8" s="5">
+        <f>SUM(E2:E7)</f>
+        <v>6129</v>
+      </c>
+      <c r="F8" s="6">
+        <f>E8/C8</f>
+        <v>0.25222222222222224</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="4">
+        <v>1233</v>
+      </c>
+      <c r="C13" s="4">
+        <f>B13*0.3</f>
+        <v>369.9</v>
+      </c>
+      <c r="D13" s="6">
+        <f>C13/B13</f>
+        <v>0.3</v>
+      </c>
+      <c r="E13" s="4">
+        <f>C13*0.3</f>
+        <v>110.96999999999998</v>
+      </c>
+      <c r="F13" s="6">
+        <f>E13/C13</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="8">
+        <v>4068</v>
+      </c>
+      <c r="C14" s="4">
+        <f t="shared" ref="C14:C19" si="0">B14*0.3</f>
+        <v>1220.3999999999999</v>
+      </c>
+      <c r="D14" s="6">
+        <f>C14/B14</f>
+        <v>0.3</v>
+      </c>
+      <c r="E14" s="4">
+        <f t="shared" ref="E14:E19" si="1">C14*0.3</f>
+        <v>366.11999999999995</v>
+      </c>
+      <c r="F14" s="6">
+        <f>E14/C14</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="4">
+        <v>7213</v>
+      </c>
+      <c r="C15" s="4">
+        <f t="shared" si="0"/>
+        <v>2163.9</v>
+      </c>
+      <c r="D15" s="6">
+        <f>C15/B15</f>
+        <v>0.3</v>
+      </c>
+      <c r="E15" s="4">
+        <f t="shared" si="1"/>
+        <v>649.16999999999996</v>
+      </c>
+      <c r="F15" s="6">
+        <f>E15/C15</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="4">
+        <v>6152</v>
+      </c>
+      <c r="C16" s="4">
+        <f t="shared" si="0"/>
+        <v>1845.6</v>
+      </c>
+      <c r="D16" s="6">
+        <f>C16/B16</f>
+        <v>0.3</v>
+      </c>
+      <c r="E16" s="4">
+        <f t="shared" si="1"/>
+        <v>553.67999999999995</v>
+      </c>
+      <c r="F16" s="6">
+        <f>E16/C16</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="8">
+        <v>2305</v>
+      </c>
+      <c r="C17" s="4">
+        <f t="shared" si="0"/>
+        <v>691.5</v>
+      </c>
+      <c r="D17" s="6">
+        <f>C17/B17</f>
+        <v>0.3</v>
+      </c>
+      <c r="E17" s="4">
+        <f t="shared" si="1"/>
+        <v>207.45</v>
+      </c>
+      <c r="F17" s="6">
+        <f>E17/C17</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="4">
+        <v>3329</v>
+      </c>
+      <c r="C18" s="4">
+        <f t="shared" si="0"/>
+        <v>998.69999999999993</v>
+      </c>
+      <c r="D18" s="6">
+        <f>C18/B18</f>
+        <v>0.3</v>
+      </c>
+      <c r="E18" s="4">
+        <f t="shared" si="1"/>
+        <v>299.60999999999996</v>
+      </c>
+      <c r="F18" s="6">
+        <f>E18/C18</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="5">
+        <f>SUM(B13:B18)</f>
+        <v>24300</v>
+      </c>
+      <c r="C19" s="4">
+        <f t="shared" si="0"/>
+        <v>7290</v>
+      </c>
+      <c r="D19" s="6">
+        <f>C19/B19</f>
+        <v>0.3</v>
+      </c>
+      <c r="E19" s="4">
+        <f t="shared" si="1"/>
+        <v>2187</v>
+      </c>
+      <c r="F19" s="6">
+        <f>E19/C19</f>
+        <v>0.3</v>
       </c>
     </row>
   </sheetData>
